--- a/database/industries/felezat/fasmin/cost/quarterly.xlsx
+++ b/database/industries/felezat/fasmin/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\fasmin\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fasmin\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4C18D0-245C-4872-AE18-74CB01403A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272D2605-264D-4BA3-985F-D62591AB1B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="78">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,21 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -100,13 +115,13 @@
     <t>تن</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>خاک معدنی</t>
   </si>
   <si>
     <t>خاک پر عیار</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>مواد اولیه کمکی</t>
@@ -694,16 +709,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I170"/>
+  <dimension ref="B1:N170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -712,8 +727,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -724,8 +744,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -736,8 +761,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -746,8 +776,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -758,8 +793,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -770,8 +810,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -780,8 +825,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -802,8 +852,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -812,164 +877,274 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>1985778</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2750256</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1615847</v>
+      </c>
+      <c r="H10" s="9">
+        <v>2106049</v>
+      </c>
+      <c r="I10" s="9">
+        <v>3443276</v>
+      </c>
+      <c r="J10" s="9">
         <v>3796343</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>5526670</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>3024601</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>8033229</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>10860059</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>149253</v>
+      </c>
+      <c r="F11" s="11">
+        <v>149727</v>
+      </c>
+      <c r="G11" s="11">
+        <v>-10442</v>
+      </c>
+      <c r="H11" s="11">
+        <v>150265</v>
+      </c>
+      <c r="I11" s="11">
+        <v>206077</v>
+      </c>
+      <c r="J11" s="11">
         <v>292004</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>26948</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>239729</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>435359</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>323470</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>314277</v>
+      </c>
+      <c r="F12" s="9">
+        <v>739545</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1200024</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1147267</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1951992</v>
+      </c>
+      <c r="J12" s="9">
         <v>1532683</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>1085698</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>2042581</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>4043782</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>-1977100</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>2449308</v>
+      </c>
+      <c r="F13" s="13">
+        <v>3639528</v>
+      </c>
+      <c r="G13" s="13">
+        <v>2805429</v>
+      </c>
+      <c r="H13" s="13">
+        <v>3403581</v>
+      </c>
+      <c r="I13" s="13">
+        <v>5601345</v>
+      </c>
+      <c r="J13" s="13">
         <v>5621030</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>6639316</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>5306911</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>12512370</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>9206429</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>-92428</v>
+      </c>
+      <c r="F14" s="9">
+        <v>-83613</v>
+      </c>
+      <c r="G14" s="9">
+        <v>28622</v>
+      </c>
+      <c r="H14" s="9">
+        <v>-57835</v>
+      </c>
+      <c r="I14" s="9">
+        <v>-41670</v>
+      </c>
+      <c r="J14" s="9">
         <v>-48654</v>
       </c>
-      <c r="F14" s="9">
+      <c r="K14" s="9">
         <v>-59689</v>
       </c>
-      <c r="G14" s="9">
+      <c r="L14" s="9">
         <v>-72747</v>
       </c>
-      <c r="H14" s="9">
+      <c r="M14" s="9">
         <v>-78998</v>
       </c>
-      <c r="I14" s="9">
+      <c r="N14" s="9">
         <v>-30349</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>2356880</v>
+      </c>
+      <c r="F15" s="13">
+        <v>3555915</v>
+      </c>
+      <c r="G15" s="13">
+        <v>2834051</v>
+      </c>
+      <c r="H15" s="13">
+        <v>3345746</v>
+      </c>
+      <c r="I15" s="13">
+        <v>5559675</v>
+      </c>
+      <c r="J15" s="13">
         <v>5572376</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>6579627</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>5234164</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>12433372</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>9176080</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>-137506</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-651978</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1490223</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-4207</v>
+      </c>
+      <c r="I16" s="9">
+        <v>994943</v>
+      </c>
+      <c r="J16" s="9">
         <v>-1054271</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>2868301</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>0</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>-92017</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>1618901</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -977,43 +1152,73 @@
         <v>0</v>
       </c>
       <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <v>-25451</v>
+      </c>
+      <c r="I17" s="11">
+        <v>25451</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
         <v>-70696</v>
       </c>
-      <c r="G17" s="11">
+      <c r="L17" s="11">
         <v>-24743</v>
       </c>
-      <c r="H17" s="11">
+      <c r="M17" s="11">
         <v>-21522</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>46265</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>2219374</v>
+      </c>
+      <c r="F18" s="15">
+        <v>2903937</v>
+      </c>
+      <c r="G18" s="15">
+        <v>4324274</v>
+      </c>
+      <c r="H18" s="15">
+        <v>3316088</v>
+      </c>
+      <c r="I18" s="15">
+        <v>6580069</v>
+      </c>
+      <c r="J18" s="15">
         <v>4518105</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>9377232</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>5209421</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>12319833</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>10841246</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1021,76 +1226,121 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>634912</v>
+      </c>
+      <c r="H19" s="11">
+        <v>8567131</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>4066696</v>
+      </c>
+      <c r="K19" s="11">
         <v>2196626</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>18209196</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>17822769</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>24178960</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-2196626</v>
+        <v>-749025</v>
       </c>
       <c r="F20" s="9">
+        <v>-634912</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-8684564</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-9811743</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-4066696</v>
+      </c>
+      <c r="J20" s="9">
+        <v>-16075065</v>
+      </c>
+      <c r="K20" s="9">
         <v>-18209196</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-17822769</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-24178960</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-24183618</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>1470349</v>
+      </c>
+      <c r="F21" s="13">
+        <v>2269025</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1711445</v>
+      </c>
+      <c r="H21" s="13">
+        <v>2071476</v>
+      </c>
+      <c r="I21" s="13">
+        <v>2513373</v>
+      </c>
+      <c r="J21" s="13">
         <v>2321479</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>7360534</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>5595848</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>5963642</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>10836588</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
-        <v>-30793</v>
+        <v>4636</v>
       </c>
       <c r="F22" s="9">
-        <v>-41120</v>
+        <v>899</v>
       </c>
       <c r="G22" s="9">
-        <v>0</v>
+        <v>-8276</v>
       </c>
       <c r="H22" s="9">
         <v>0</v>
@@ -1098,30 +1348,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>-30793</v>
+      </c>
+      <c r="K22" s="9">
+        <v>-41120</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>1474985</v>
+      </c>
+      <c r="F23" s="13">
+        <v>2269924</v>
+      </c>
+      <c r="G23" s="13">
+        <v>1703169</v>
+      </c>
+      <c r="H23" s="13">
+        <v>2071476</v>
+      </c>
+      <c r="I23" s="13">
+        <v>2513373</v>
+      </c>
+      <c r="J23" s="13">
         <v>2290686</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>7319414</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>5595848</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>5963642</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>10836588</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1130,8 +1410,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1140,8 +1425,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1150,10 +1440,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1172,8 +1467,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1182,126 +1492,206 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9">
+      <c r="E29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="9">
         <v>41037</v>
       </c>
-      <c r="F29" s="9">
+      <c r="K29" s="9">
         <v>47877</v>
       </c>
-      <c r="G29" s="9">
+      <c r="L29" s="9">
         <v>16950</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <v>25770</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <v>36250</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
+        <v>56301</v>
+      </c>
+      <c r="F30" s="11">
+        <v>58724</v>
+      </c>
+      <c r="G30" s="11">
+        <v>48786</v>
+      </c>
+      <c r="H30" s="11">
+        <v>119092</v>
+      </c>
+      <c r="I30" s="11">
+        <v>106532</v>
+      </c>
+      <c r="J30" s="11">
         <v>54409</v>
       </c>
-      <c r="F30" s="11">
+      <c r="K30" s="11">
         <v>58696</v>
       </c>
-      <c r="G30" s="11">
+      <c r="L30" s="11">
         <v>97678</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>92756</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>66909</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15">
+        <v>56301</v>
+      </c>
+      <c r="F33" s="15">
+        <v>58724</v>
+      </c>
+      <c r="G33" s="15">
+        <v>48786</v>
+      </c>
+      <c r="H33" s="15">
+        <v>119092</v>
+      </c>
+      <c r="I33" s="15">
+        <v>106532</v>
+      </c>
+      <c r="J33" s="15">
         <v>95446</v>
       </c>
-      <c r="F33" s="15">
+      <c r="K33" s="15">
         <v>106573</v>
       </c>
-      <c r="G33" s="15">
+      <c r="L33" s="15">
         <v>114628</v>
       </c>
-      <c r="H33" s="15">
+      <c r="M33" s="15">
         <v>118526</v>
       </c>
-      <c r="I33" s="15">
+      <c r="N33" s="15">
         <v>103159</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1310,8 +1700,13 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1320,8 +1715,13 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1330,10 +1730,15 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -1352,8 +1757,23 @@
       <c r="I37" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1362,126 +1782,206 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D39" s="9"/>
-      <c r="E39" s="9">
+      <c r="E39" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="9">
+        <v>240977</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" s="9">
+        <v>356559</v>
+      </c>
+      <c r="J39" s="9">
         <v>178279</v>
       </c>
-      <c r="F39" s="9">
+      <c r="K39" s="9">
         <v>-177479</v>
       </c>
-      <c r="G39" s="9">
+      <c r="L39" s="9">
         <v>50456</v>
       </c>
-      <c r="H39" s="9">
+      <c r="M39" s="9">
         <v>93954</v>
       </c>
-      <c r="I39" s="9">
+      <c r="N39" s="9">
         <v>52930</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
+        <v>67031</v>
+      </c>
+      <c r="F40" s="11">
+        <v>49846</v>
+      </c>
+      <c r="G40" s="11">
+        <v>22357</v>
+      </c>
+      <c r="H40" s="11">
+        <v>34594</v>
+      </c>
+      <c r="I40" s="11">
+        <v>59510</v>
+      </c>
+      <c r="J40" s="11">
         <v>67704</v>
       </c>
-      <c r="F40" s="11">
+      <c r="K40" s="11">
         <v>37534</v>
       </c>
-      <c r="G40" s="11">
+      <c r="L40" s="11">
         <v>51500</v>
       </c>
-      <c r="H40" s="11">
+      <c r="M40" s="11">
         <v>66276</v>
       </c>
-      <c r="I40" s="11">
+      <c r="N40" s="11">
         <v>58444</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H42" s="11">
+        <v>31</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M42" s="11">
         <v>250000</v>
       </c>
-      <c r="I42" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N42" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15">
+        <v>67031</v>
+      </c>
+      <c r="F43" s="15">
+        <v>49846</v>
+      </c>
+      <c r="G43" s="15">
+        <v>263334</v>
+      </c>
+      <c r="H43" s="15">
+        <v>34594</v>
+      </c>
+      <c r="I43" s="15">
+        <v>416069</v>
+      </c>
+      <c r="J43" s="15">
         <v>245983</v>
       </c>
-      <c r="F43" s="15">
+      <c r="K43" s="15">
         <v>-139945</v>
       </c>
-      <c r="G43" s="15">
+      <c r="L43" s="15">
         <v>101956</v>
       </c>
-      <c r="H43" s="15">
+      <c r="M43" s="15">
         <v>410230</v>
       </c>
-      <c r="I43" s="15">
+      <c r="N43" s="15">
         <v>111374</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1490,8 +1990,13 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1500,8 +2005,13 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1510,10 +2020,15 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -1532,8 +2047,23 @@
       <c r="I47" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1542,126 +2072,206 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D49" s="9"/>
-      <c r="E49" s="9">
+      <c r="E49" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="9">
+        <v>220818</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" s="9">
+        <v>338901</v>
+      </c>
+      <c r="J49" s="9">
         <v>171439</v>
       </c>
-      <c r="F49" s="9">
+      <c r="K49" s="9">
         <v>-146552</v>
       </c>
-      <c r="G49" s="9">
+      <c r="L49" s="9">
         <v>41636</v>
       </c>
-      <c r="H49" s="9">
+      <c r="M49" s="9">
         <v>89903</v>
       </c>
-      <c r="I49" s="9">
+      <c r="N49" s="9">
         <v>42568</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
+        <v>64608</v>
+      </c>
+      <c r="F50" s="11">
+        <v>59784</v>
+      </c>
+      <c r="G50" s="11">
+        <v>35443</v>
+      </c>
+      <c r="H50" s="11">
+        <v>47154</v>
+      </c>
+      <c r="I50" s="11">
+        <v>88254</v>
+      </c>
+      <c r="J50" s="11">
         <v>63417</v>
       </c>
-      <c r="F50" s="11">
+      <c r="K50" s="11">
         <v>-1448</v>
       </c>
-      <c r="G50" s="11">
+      <c r="L50" s="11">
         <v>56422</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>92123</v>
       </c>
-      <c r="I50" s="11">
+      <c r="N50" s="11">
         <v>27675</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H52" s="11">
+        <v>31</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M52" s="11">
         <v>250000</v>
       </c>
-      <c r="I52" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N52" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15">
+        <v>64608</v>
+      </c>
+      <c r="F53" s="15">
+        <v>59784</v>
+      </c>
+      <c r="G53" s="15">
+        <v>256261</v>
+      </c>
+      <c r="H53" s="15">
+        <v>47154</v>
+      </c>
+      <c r="I53" s="15">
+        <v>427155</v>
+      </c>
+      <c r="J53" s="15">
         <v>234856</v>
       </c>
-      <c r="F53" s="15">
+      <c r="K53" s="15">
         <v>-148000</v>
       </c>
-      <c r="G53" s="15">
+      <c r="L53" s="15">
         <v>98058</v>
       </c>
-      <c r="H53" s="15">
+      <c r="M53" s="15">
         <v>432026</v>
       </c>
-      <c r="I53" s="15">
+      <c r="N53" s="15">
         <v>70243</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1670,8 +2280,13 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1680,8 +2295,13 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1690,10 +2310,15 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -1712,8 +2337,23 @@
       <c r="I57" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1722,126 +2362,206 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D59" s="9"/>
-      <c r="E59" s="9">
+      <c r="E59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="9">
+        <v>23379</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" s="9">
+        <v>41037</v>
+      </c>
+      <c r="J59" s="9">
         <v>47877</v>
       </c>
-      <c r="F59" s="9">
+      <c r="K59" s="9">
         <v>16950</v>
       </c>
-      <c r="G59" s="9">
+      <c r="L59" s="9">
         <v>25770</v>
       </c>
-      <c r="H59" s="9">
+      <c r="M59" s="9">
         <v>36250</v>
       </c>
-      <c r="I59" s="9">
+      <c r="N59" s="9">
         <v>59483</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
+        <v>58724</v>
+      </c>
+      <c r="F60" s="11">
+        <v>48786</v>
+      </c>
+      <c r="G60" s="11">
+        <v>93573</v>
+      </c>
+      <c r="H60" s="11">
+        <v>106532</v>
+      </c>
+      <c r="I60" s="11">
+        <v>54409</v>
+      </c>
+      <c r="J60" s="11">
         <v>58696</v>
       </c>
-      <c r="F60" s="11">
+      <c r="K60" s="11">
         <v>97678</v>
       </c>
-      <c r="G60" s="11">
+      <c r="L60" s="11">
         <v>92756</v>
       </c>
-      <c r="H60" s="11">
+      <c r="M60" s="11">
         <v>66909</v>
       </c>
-      <c r="I60" s="11">
+      <c r="N60" s="11">
         <v>66909</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H62" s="11">
+        <v>31</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M62" s="11">
         <v>0</v>
       </c>
-      <c r="I62" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N62" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15">
+        <v>58724</v>
+      </c>
+      <c r="F63" s="15">
+        <v>48786</v>
+      </c>
+      <c r="G63" s="15">
+        <v>116952</v>
+      </c>
+      <c r="H63" s="15">
+        <v>106532</v>
+      </c>
+      <c r="I63" s="15">
+        <v>95446</v>
+      </c>
+      <c r="J63" s="15">
         <v>106573</v>
       </c>
-      <c r="F63" s="15">
+      <c r="K63" s="15">
         <v>114628</v>
       </c>
-      <c r="G63" s="15">
+      <c r="L63" s="15">
         <v>118526</v>
       </c>
-      <c r="H63" s="15">
+      <c r="M63" s="15">
         <v>103159</v>
       </c>
-      <c r="I63" s="15">
+      <c r="N63" s="15">
         <v>126392</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1850,8 +2570,13 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1860,8 +2585,13 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1870,10 +2600,15 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -1892,8 +2627,23 @@
       <c r="I67" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1902,126 +2652,206 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D69" s="9"/>
-      <c r="E69" s="9">
+      <c r="E69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J69" s="9">
         <v>34340</v>
       </c>
-      <c r="F69" s="9">
+      <c r="K69" s="9">
         <v>97180</v>
       </c>
-      <c r="G69" s="9">
+      <c r="L69" s="9">
         <v>71070</v>
       </c>
-      <c r="H69" s="9">
+      <c r="M69" s="9">
         <v>130826</v>
       </c>
-      <c r="I69" s="9">
+      <c r="N69" s="9">
         <v>881741</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
+        <v>416973</v>
+      </c>
+      <c r="F70" s="11">
+        <v>921314</v>
+      </c>
+      <c r="G70" s="11">
+        <v>697288</v>
+      </c>
+      <c r="H70" s="11">
+        <v>1341934</v>
+      </c>
+      <c r="I70" s="11">
+        <v>1880092</v>
+      </c>
+      <c r="J70" s="11">
         <v>2871707</v>
       </c>
-      <c r="F70" s="11">
+      <c r="K70" s="11">
         <v>4150262</v>
       </c>
-      <c r="G70" s="11">
+      <c r="L70" s="11">
         <v>2696207</v>
       </c>
-      <c r="H70" s="11">
+      <c r="M70" s="11">
         <v>4624935</v>
       </c>
-      <c r="I70" s="11">
+      <c r="N70" s="11">
         <v>7860837</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M72" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N72" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15">
+        <v>416973</v>
+      </c>
+      <c r="F73" s="15">
+        <v>921314</v>
+      </c>
+      <c r="G73" s="15">
+        <v>697288</v>
+      </c>
+      <c r="H73" s="15">
+        <v>1341934</v>
+      </c>
+      <c r="I73" s="15">
+        <v>1880092</v>
+      </c>
+      <c r="J73" s="15">
         <v>2906047</v>
       </c>
-      <c r="F73" s="15">
+      <c r="K73" s="15">
         <v>4247442</v>
       </c>
-      <c r="G73" s="15">
+      <c r="L73" s="15">
         <v>2767277</v>
       </c>
-      <c r="H73" s="15">
+      <c r="M73" s="15">
         <v>4755761</v>
       </c>
-      <c r="I73" s="15">
+      <c r="N73" s="15">
         <v>8742578</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2030,8 +2860,13 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2040,8 +2875,13 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2050,10 +2890,15 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -2072,8 +2917,23 @@
       <c r="I77" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M77" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2082,126 +2942,206 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D79" s="9"/>
-      <c r="E79" s="9">
+      <c r="E79" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="9">
+        <v>135488</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I79" s="9">
+        <v>713331</v>
+      </c>
+      <c r="J79" s="9">
         <v>410148</v>
       </c>
-      <c r="F79" s="9">
+      <c r="K79" s="9">
         <v>248289</v>
       </c>
-      <c r="G79" s="9">
+      <c r="L79" s="9">
         <v>271100</v>
       </c>
-      <c r="H79" s="9">
+      <c r="M79" s="9">
         <v>2362420</v>
       </c>
-      <c r="I79" s="9">
+      <c r="N79" s="9">
         <v>184397</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
+        <v>2490118</v>
+      </c>
+      <c r="F80" s="11">
+        <v>2526230</v>
+      </c>
+      <c r="G80" s="11">
+        <v>1848323</v>
+      </c>
+      <c r="H80" s="11">
+        <v>2644207</v>
+      </c>
+      <c r="I80" s="11">
+        <v>3755899</v>
+      </c>
+      <c r="J80" s="11">
         <v>4727590</v>
       </c>
-      <c r="F80" s="11">
+      <c r="K80" s="11">
         <v>3798217</v>
       </c>
-      <c r="G80" s="11">
+      <c r="L80" s="11">
         <v>4741985</v>
       </c>
-      <c r="H80" s="11">
+      <c r="M80" s="11">
         <v>8499234</v>
       </c>
-      <c r="I80" s="11">
+      <c r="N80" s="11">
         <v>5388291</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N81" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H82" s="11">
+        <v>31</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M82" s="11">
         <v>1219876</v>
       </c>
-      <c r="I82" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N82" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15">
+        <v>2490118</v>
+      </c>
+      <c r="F83" s="15">
+        <v>2526230</v>
+      </c>
+      <c r="G83" s="15">
+        <v>1983811</v>
+      </c>
+      <c r="H83" s="15">
+        <v>2644207</v>
+      </c>
+      <c r="I83" s="15">
+        <v>4469230</v>
+      </c>
+      <c r="J83" s="15">
         <v>5137738</v>
       </c>
-      <c r="F83" s="15">
+      <c r="K83" s="15">
         <v>4046506</v>
       </c>
-      <c r="G83" s="15">
+      <c r="L83" s="15">
         <v>5013085</v>
       </c>
-      <c r="H83" s="15">
+      <c r="M83" s="15">
         <v>12081530</v>
       </c>
-      <c r="I83" s="15">
+      <c r="N83" s="15">
         <v>5572688</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2210,8 +3150,13 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2220,8 +3165,13 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2230,10 +3180,15 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -2252,8 +3207,23 @@
       <c r="I87" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M87" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N87" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2262,126 +3232,206 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D89" s="9"/>
-      <c r="E89" s="9">
+      <c r="E89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="9">
+        <v>129123</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I89" s="9">
+        <v>688577</v>
+      </c>
+      <c r="J89" s="9">
         <v>347308</v>
       </c>
-      <c r="F89" s="9">
+      <c r="K89" s="9">
         <v>274399</v>
       </c>
-      <c r="G89" s="9">
+      <c r="L89" s="9">
         <v>211344</v>
       </c>
-      <c r="H89" s="9">
+      <c r="M89" s="9">
         <v>1550021</v>
       </c>
-      <c r="I89" s="9">
+      <c r="N89" s="9">
         <v>996186</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
+        <v>1985778</v>
+      </c>
+      <c r="F90" s="11">
+        <v>2750256</v>
+      </c>
+      <c r="G90" s="11">
+        <v>1486724</v>
+      </c>
+      <c r="H90" s="11">
+        <v>2106049</v>
+      </c>
+      <c r="I90" s="11">
+        <v>2754699</v>
+      </c>
+      <c r="J90" s="11">
         <v>3449035</v>
       </c>
-      <c r="F90" s="11">
+      <c r="K90" s="11">
         <v>5252271</v>
       </c>
-      <c r="G90" s="11">
+      <c r="L90" s="11">
         <v>2813257</v>
       </c>
-      <c r="H90" s="11">
+      <c r="M90" s="11">
         <v>5263332</v>
       </c>
-      <c r="I90" s="11">
+      <c r="N90" s="11">
         <v>11083749</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K91" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L91" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M91" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N91" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H92" s="11">
+        <v>31</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M92" s="11">
         <v>1219876</v>
       </c>
-      <c r="I92" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N92" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15">
+        <v>1985778</v>
+      </c>
+      <c r="F93" s="15">
+        <v>2750256</v>
+      </c>
+      <c r="G93" s="15">
+        <v>1615847</v>
+      </c>
+      <c r="H93" s="15">
+        <v>2106049</v>
+      </c>
+      <c r="I93" s="15">
+        <v>3443276</v>
+      </c>
+      <c r="J93" s="15">
         <v>3796343</v>
       </c>
-      <c r="F93" s="15">
+      <c r="K93" s="15">
         <v>5526670</v>
       </c>
-      <c r="G93" s="15">
+      <c r="L93" s="15">
         <v>3024601</v>
       </c>
-      <c r="H93" s="15">
+      <c r="M93" s="15">
         <v>8033229</v>
       </c>
-      <c r="I93" s="15">
+      <c r="N93" s="15">
         <v>12079935</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2390,8 +3440,13 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2400,8 +3455,13 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2410,10 +3470,15 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -2432,8 +3497,23 @@
       <c r="I97" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2442,126 +3522,206 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D99" s="9"/>
-      <c r="E99" s="9">
+      <c r="E99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G99" s="9">
+        <v>9585</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I99" s="9">
+        <v>34340</v>
+      </c>
+      <c r="J99" s="9">
         <v>97180</v>
       </c>
-      <c r="F99" s="9">
+      <c r="K99" s="9">
         <v>71070</v>
       </c>
-      <c r="G99" s="9">
+      <c r="L99" s="9">
         <v>130826</v>
       </c>
-      <c r="H99" s="9">
+      <c r="M99" s="9">
         <v>881741</v>
       </c>
-      <c r="I99" s="9">
+      <c r="N99" s="9">
         <v>942107</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
+        <v>921314</v>
+      </c>
+      <c r="F100" s="11">
+        <v>697288</v>
+      </c>
+      <c r="G100" s="11">
+        <v>1318276</v>
+      </c>
+      <c r="H100" s="11">
+        <v>1880092</v>
+      </c>
+      <c r="I100" s="11">
+        <v>2871707</v>
+      </c>
+      <c r="J100" s="11">
         <v>4150262</v>
       </c>
-      <c r="F100" s="11">
+      <c r="K100" s="11">
         <v>2696207</v>
       </c>
-      <c r="G100" s="11">
+      <c r="L100" s="11">
         <v>4624935</v>
       </c>
-      <c r="H100" s="11">
+      <c r="M100" s="11">
         <v>7860837</v>
       </c>
-      <c r="I100" s="11">
+      <c r="N100" s="11">
         <v>7330009</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M101" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N101" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H102" s="11">
+        <v>31</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I102" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K102" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L102" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M102" s="11">
         <v>0</v>
       </c>
-      <c r="I102" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N102" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15">
+        <v>921314</v>
+      </c>
+      <c r="F103" s="15">
+        <v>697288</v>
+      </c>
+      <c r="G103" s="15">
+        <v>1327861</v>
+      </c>
+      <c r="H103" s="15">
+        <v>1880092</v>
+      </c>
+      <c r="I103" s="15">
+        <v>2906047</v>
+      </c>
+      <c r="J103" s="15">
         <v>4247442</v>
       </c>
-      <c r="F103" s="15">
+      <c r="K103" s="15">
         <v>2767277</v>
       </c>
-      <c r="G103" s="15">
+      <c r="L103" s="15">
         <v>4755761</v>
       </c>
-      <c r="H103" s="15">
+      <c r="M103" s="15">
         <v>8742578</v>
       </c>
-      <c r="I103" s="15">
+      <c r="N103" s="15">
         <v>8272116</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2570,8 +3730,13 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2580,8 +3745,13 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2590,10 +3760,15 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -2612,8 +3787,23 @@
       <c r="I107" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N107" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2622,80 +3812,130 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D109" s="9"/>
-      <c r="E109" s="9">
+      <c r="E109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J109" s="9">
         <v>836806</v>
       </c>
-      <c r="F109" s="9">
+      <c r="K109" s="9">
         <v>2029785</v>
       </c>
-      <c r="G109" s="9">
+      <c r="L109" s="9">
         <v>4192920</v>
       </c>
-      <c r="H109" s="9">
+      <c r="M109" s="9">
         <v>5076678</v>
       </c>
-      <c r="I109" s="9">
+      <c r="N109" s="9">
         <v>24323890</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
+        <v>7406138</v>
+      </c>
+      <c r="F110" s="11">
+        <v>15688884</v>
+      </c>
+      <c r="G110" s="11">
+        <v>14292789</v>
+      </c>
+      <c r="H110" s="11">
+        <v>11268045</v>
+      </c>
+      <c r="I110" s="11">
+        <v>17648143</v>
+      </c>
+      <c r="J110" s="11">
         <v>52780000</v>
       </c>
-      <c r="F110" s="11">
+      <c r="K110" s="11">
         <v>70707748</v>
       </c>
-      <c r="G110" s="11">
+      <c r="L110" s="11">
         <v>27603012</v>
       </c>
-      <c r="H110" s="11">
+      <c r="M110" s="11">
         <v>49861303</v>
       </c>
-      <c r="I110" s="11">
+      <c r="N110" s="11">
         <v>117485495</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J111" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K111" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L111" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M111" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N111" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2704,8 +3944,13 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2714,8 +3959,13 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2724,10 +3974,15 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -2746,8 +4001,23 @@
       <c r="I115" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K115" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N115" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2756,104 +4026,169 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D117" s="9"/>
-      <c r="E117" s="9">
+      <c r="E117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G117" s="9">
+        <v>562245</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I117" s="9">
+        <v>2000597</v>
+      </c>
+      <c r="J117" s="9">
         <v>2300596</v>
       </c>
-      <c r="F117" s="9">
+      <c r="K117" s="9">
         <v>-1398977</v>
       </c>
-      <c r="G117" s="9">
+      <c r="L117" s="9">
         <v>5372998</v>
       </c>
-      <c r="H117" s="9">
+      <c r="M117" s="9">
         <v>25144432</v>
       </c>
-      <c r="I117" s="9">
+      <c r="N117" s="9">
         <v>3483790</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
+        <v>37148752</v>
+      </c>
+      <c r="F118" s="11">
+        <v>50680697</v>
+      </c>
+      <c r="G118" s="11">
+        <v>82673123</v>
+      </c>
+      <c r="H118" s="11">
+        <v>76435422</v>
+      </c>
+      <c r="I118" s="11">
+        <v>63113746</v>
+      </c>
+      <c r="J118" s="11">
         <v>69827337</v>
       </c>
-      <c r="F118" s="11">
+      <c r="K118" s="11">
         <v>101194037</v>
       </c>
-      <c r="G118" s="11">
+      <c r="L118" s="11">
         <v>92077379</v>
       </c>
-      <c r="H118" s="11">
+      <c r="M118" s="11">
         <v>128239996</v>
       </c>
-      <c r="I118" s="11">
+      <c r="N118" s="11">
         <v>92195794</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M119" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N119" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H120" s="11">
+        <v>31</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M120" s="11">
         <v>4879504</v>
       </c>
-      <c r="I120" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N120" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2862,8 +4197,13 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2872,8 +4212,13 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -2882,10 +4227,15 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+    </row>
+    <row r="124" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -2904,8 +4254,23 @@
       <c r="I124" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J124" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K124" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L124" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M124" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N124" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -2914,104 +4279,169 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D126" s="9"/>
-      <c r="E126" s="9">
+      <c r="E126" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G126" s="9">
+        <v>584749</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I126" s="9">
+        <v>2031794</v>
+      </c>
+      <c r="J126" s="9">
         <v>2025840</v>
       </c>
-      <c r="F126" s="9">
+      <c r="K126" s="9">
         <v>-1872366</v>
       </c>
-      <c r="G126" s="9">
+      <c r="L126" s="9">
         <v>5075992</v>
       </c>
-      <c r="H126" s="9">
+      <c r="M126" s="9">
         <v>17241038</v>
       </c>
-      <c r="I126" s="9">
+      <c r="N126" s="9">
         <v>23402227</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="11">
+        <v>30735791</v>
+      </c>
+      <c r="F127" s="11">
+        <v>46003212</v>
+      </c>
+      <c r="G127" s="11">
+        <v>41946901</v>
+      </c>
+      <c r="H127" s="11">
+        <v>44663210</v>
+      </c>
+      <c r="I127" s="11">
+        <v>31213305</v>
+      </c>
+      <c r="J127" s="11">
         <v>54386600</v>
       </c>
-      <c r="F127" s="11">
+      <c r="K127" s="11">
         <v>-3627258978</v>
       </c>
-      <c r="G127" s="11">
+      <c r="L127" s="11">
         <v>49860994</v>
       </c>
-      <c r="H127" s="11">
+      <c r="M127" s="11">
         <v>57133745</v>
       </c>
-      <c r="I127" s="11">
+      <c r="N127" s="11">
         <v>400496802</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D128" s="9"/>
       <c r="E128" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I128" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J128" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K128" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L128" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M128" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N128" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D129" s="11"/>
       <c r="E129" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H129" s="11">
+        <v>31</v>
+      </c>
+      <c r="H129" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I129" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J129" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K129" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L129" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M129" s="11">
         <v>4879504</v>
       </c>
-      <c r="I129" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N129" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3020,8 +4450,13 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3030,8 +4465,13 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3040,10 +4480,15 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -3062,8 +4507,23 @@
       <c r="I133" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J133" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K133" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L133" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M133" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N133" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3072,56 +4532,91 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D135" s="9"/>
-      <c r="E135" s="9">
+      <c r="E135" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G135" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H135" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I135" s="9">
+        <v>836806</v>
+      </c>
+      <c r="J135" s="9">
         <v>2029785</v>
       </c>
-      <c r="F135" s="9">
+      <c r="K135" s="9">
         <v>4192920</v>
       </c>
-      <c r="G135" s="9">
+      <c r="L135" s="9">
         <v>5076678</v>
       </c>
-      <c r="H135" s="9">
+      <c r="M135" s="9">
         <v>24323890</v>
       </c>
-      <c r="I135" s="9">
+      <c r="N135" s="9">
         <v>15838256</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D136" s="11"/>
-      <c r="E136" s="11">
+      <c r="E136" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H136" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I136" s="11">
+        <v>52780000</v>
+      </c>
+      <c r="J136" s="11">
         <v>70707748</v>
       </c>
-      <c r="F136" s="11">
+      <c r="K136" s="11">
         <v>27603012</v>
       </c>
-      <c r="G136" s="11">
+      <c r="L136" s="11">
         <v>49861303</v>
       </c>
-      <c r="H136" s="11">
+      <c r="M136" s="11">
         <v>117485495</v>
       </c>
-      <c r="I136" s="11">
+      <c r="N136" s="11">
         <v>109551914</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3130,8 +4625,13 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3140,8 +4640,13 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3150,10 +4655,15 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
-    </row>
-    <row r="140" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+    </row>
+    <row r="140" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -3172,8 +4682,23 @@
       <c r="I140" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J140" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K140" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L140" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M140" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N140" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3182,32 +4707,52 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9">
+        <v>53338</v>
+      </c>
+      <c r="F142" s="9">
+        <v>-38907</v>
+      </c>
+      <c r="G142" s="9">
+        <v>5503</v>
+      </c>
+      <c r="H142" s="9">
+        <v>41400</v>
+      </c>
+      <c r="I142" s="9">
+        <v>122088</v>
+      </c>
+      <c r="J142" s="9">
         <v>-163488</v>
       </c>
-      <c r="F142" s="9">
-        <v>39231</v>
-      </c>
-      <c r="G142" s="9">
+      <c r="K142" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L142" s="9">
         <v>13731</v>
       </c>
-      <c r="H142" s="9">
+      <c r="M142" s="9">
         <v>210151</v>
       </c>
-      <c r="I142" s="9">
+      <c r="N142" s="9">
         <v>-146045</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
@@ -3226,10 +4771,25 @@
       <c r="I143" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="11">
+        <v>0</v>
+      </c>
+      <c r="K143" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L143" s="11">
+        <v>0</v>
+      </c>
+      <c r="M143" s="11">
+        <v>0</v>
+      </c>
+      <c r="N143" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
@@ -3248,10 +4808,25 @@
       <c r="I144" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J144" s="9">
+        <v>0</v>
+      </c>
+      <c r="K144" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L144" s="9">
+        <v>0</v>
+      </c>
+      <c r="M144" s="9">
+        <v>0</v>
+      </c>
+      <c r="N144" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
@@ -3270,98 +4845,173 @@
       <c r="I145" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J145" s="11">
+        <v>0</v>
+      </c>
+      <c r="K145" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L145" s="11">
+        <v>0</v>
+      </c>
+      <c r="M145" s="11">
+        <v>0</v>
+      </c>
+      <c r="N145" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9">
+        <v>318281</v>
+      </c>
+      <c r="F146" s="9">
+        <v>338149</v>
+      </c>
+      <c r="G146" s="9">
+        <v>932918</v>
+      </c>
+      <c r="H146" s="9">
+        <v>460917</v>
+      </c>
+      <c r="I146" s="9">
+        <v>1037568</v>
+      </c>
+      <c r="J146" s="9">
         <v>1886036</v>
       </c>
-      <c r="F146" s="9">
-        <v>-1148535</v>
-      </c>
-      <c r="G146" s="9">
+      <c r="K146" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L146" s="9">
         <v>782595</v>
       </c>
-      <c r="H146" s="9">
+      <c r="M146" s="9">
         <v>3447501</v>
       </c>
-      <c r="I146" s="9">
+      <c r="N146" s="9">
         <v>-2149707</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
       <c r="E147" s="11">
+        <v>61531</v>
+      </c>
+      <c r="F147" s="11">
+        <v>42332</v>
+      </c>
+      <c r="G147" s="11">
+        <v>47695</v>
+      </c>
+      <c r="H147" s="11">
+        <v>54522</v>
+      </c>
+      <c r="I147" s="11">
+        <v>180813</v>
+      </c>
+      <c r="J147" s="11">
         <v>279831</v>
       </c>
-      <c r="F147" s="11">
-        <v>515902</v>
-      </c>
-      <c r="G147" s="11">
+      <c r="K147" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L147" s="11">
         <v>360874</v>
       </c>
-      <c r="H147" s="11">
+      <c r="M147" s="11">
         <v>189868</v>
       </c>
-      <c r="I147" s="11">
+      <c r="N147" s="11">
         <v>330001</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9">
+        <v>24981</v>
+      </c>
+      <c r="F148" s="9">
+        <v>24474</v>
+      </c>
+      <c r="G148" s="9">
+        <v>24130</v>
+      </c>
+      <c r="H148" s="9">
+        <v>23475</v>
+      </c>
+      <c r="I148" s="9">
+        <v>36777</v>
+      </c>
+      <c r="J148" s="9">
         <v>30995</v>
       </c>
-      <c r="F148" s="9">
-        <v>30795</v>
-      </c>
-      <c r="G148" s="9">
+      <c r="K148" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L148" s="9">
         <v>30142</v>
       </c>
-      <c r="H148" s="9">
+      <c r="M148" s="9">
         <v>47431</v>
       </c>
-      <c r="I148" s="9">
+      <c r="N148" s="9">
         <v>-50226</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
       <c r="E149" s="11">
+        <v>121372</v>
+      </c>
+      <c r="F149" s="11">
+        <v>121458</v>
+      </c>
+      <c r="G149" s="11">
+        <v>309632</v>
+      </c>
+      <c r="H149" s="11">
+        <v>238173</v>
+      </c>
+      <c r="I149" s="11">
+        <v>290009</v>
+      </c>
+      <c r="J149" s="11">
         <v>77975</v>
       </c>
-      <c r="F149" s="11">
-        <v>1048156</v>
-      </c>
-      <c r="G149" s="11">
+      <c r="K149" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L149" s="11">
         <v>579009</v>
       </c>
-      <c r="H149" s="11">
+      <c r="M149" s="11">
         <v>135099</v>
       </c>
-      <c r="I149" s="11">
+      <c r="N149" s="11">
         <v>328839</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
@@ -3380,52 +5030,97 @@
       <c r="I150" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J150" s="9">
+        <v>0</v>
+      </c>
+      <c r="K150" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L150" s="9">
+        <v>0</v>
+      </c>
+      <c r="M150" s="9">
+        <v>0</v>
+      </c>
+      <c r="N150" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C151" s="11"/>
       <c r="D151" s="11"/>
       <c r="E151" s="11">
+        <v>-265226</v>
+      </c>
+      <c r="F151" s="11">
+        <v>252039</v>
+      </c>
+      <c r="G151" s="11">
+        <v>-119854</v>
+      </c>
+      <c r="H151" s="11">
+        <v>328780</v>
+      </c>
+      <c r="I151" s="11">
+        <v>284737</v>
+      </c>
+      <c r="J151" s="11">
         <v>-578666</v>
       </c>
-      <c r="F151" s="11">
-        <v>600149</v>
-      </c>
-      <c r="G151" s="11">
+      <c r="K151" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L151" s="11">
         <v>276230</v>
       </c>
-      <c r="H151" s="11">
+      <c r="M151" s="11">
         <v>13732</v>
       </c>
-      <c r="I151" s="11">
+      <c r="N151" s="11">
         <v>-289962</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C152" s="15"/>
       <c r="D152" s="15"/>
       <c r="E152" s="15">
+        <v>314277</v>
+      </c>
+      <c r="F152" s="15">
+        <v>739545</v>
+      </c>
+      <c r="G152" s="15">
+        <v>1200024</v>
+      </c>
+      <c r="H152" s="15">
+        <v>1147267</v>
+      </c>
+      <c r="I152" s="15">
+        <v>1951992</v>
+      </c>
+      <c r="J152" s="15">
         <v>1532683</v>
       </c>
-      <c r="F152" s="15">
-        <v>1085698</v>
-      </c>
-      <c r="G152" s="15">
+      <c r="K152" s="15">
+        <v>0</v>
+      </c>
+      <c r="L152" s="15">
         <v>2042581</v>
       </c>
-      <c r="H152" s="15">
+      <c r="M152" s="15">
         <v>4043782</v>
       </c>
-      <c r="I152" s="15">
+      <c r="N152" s="15">
         <v>-1977100</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3434,8 +5129,13 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3444,8 +5144,13 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -3454,10 +5159,15 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
-    </row>
-    <row r="156" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+    </row>
+    <row r="156" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B156" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
@@ -3466,8 +5176,13 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -3476,13 +5191,18 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
@@ -3490,13 +5210,18 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D159" s="11"/>
       <c r="E159" s="11"/>
@@ -3504,123 +5229,128 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B161" s="10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D161" s="11"/>
       <c r="E161" s="11"/>
       <c r="F161" s="11"/>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B163" s="10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D163" s="11"/>
       <c r="E163" s="11"/>
       <c r="F163" s="11"/>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B164" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D165" s="11"/>
       <c r="E165" s="11"/>
       <c r="F165" s="11"/>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B166" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D166" s="9"/>
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B167" s="10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D167" s="11"/>
       <c r="E167" s="11"/>
       <c r="F167" s="11"/>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B168" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D168" s="9"/>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B169" s="10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D169" s="11"/>
       <c r="E169" s="11"/>
       <c r="F169" s="11"/>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B170" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>

--- a/database/industries/felezat/fasmin/cost/quarterly.xlsx
+++ b/database/industries/felezat/fasmin/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fasmin\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fasmin\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272D2605-264D-4BA3-985F-D62591AB1B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847CF34C-1F94-4BE0-A6FE-24A0BD1CDC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -713,12 +713,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -733,7 +733,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -750,7 +750,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -767,7 +767,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -782,7 +782,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -799,7 +799,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -816,7 +816,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -831,7 +831,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -868,7 +868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -883,7 +883,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -920,7 +920,7 @@
         <v>10860059</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -957,7 +957,7 @@
         <v>323470</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
@@ -994,7 +994,7 @@
         <v>-1977100</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>9206429</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>-30349</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>9176080</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>1618901</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>46265</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>10841246</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="11">
-        <v>634912</v>
+        <v>6017535</v>
       </c>
       <c r="H19" s="11">
         <v>8567131</v>
@@ -1238,10 +1238,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="11">
-        <v>4066696</v>
+        <v>13878439</v>
       </c>
       <c r="K19" s="11">
-        <v>2196626</v>
+        <v>16075065</v>
       </c>
       <c r="L19" s="11">
         <v>18209196</v>
@@ -1253,7 +1253,7 @@
         <v>24178960</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>-24183618</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>10836588</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>10836588</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1416,7 +1416,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1431,7 +1431,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1446,7 +1446,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1498,7 +1498,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>36250</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>66909</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>34</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>17</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>103159</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1706,7 +1706,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1721,7 +1721,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1736,7 +1736,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>35</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1788,7 +1788,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>29</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>52930</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>32</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>58444</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>33</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>34</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>17</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>111374</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1996,7 +1996,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2011,7 +2011,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2026,7 +2026,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>36</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2078,7 +2078,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>29</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>42568</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>32</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>27675</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>33</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>34</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>17</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>70243</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2286,7 +2286,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2301,7 +2301,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2316,7 +2316,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>37</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2368,7 +2368,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>29</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>59483</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>32</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>66909</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>33</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>34</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
         <v>17</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>126392</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2576,7 +2576,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2591,7 +2591,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2606,7 +2606,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>38</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2658,7 +2658,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>29</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>881741</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>32</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>7860837</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>33</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>34</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="14" t="s">
         <v>17</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>8742578</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2866,7 +2866,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2881,7 +2881,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2896,7 +2896,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
         <v>40</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2948,7 +2948,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>29</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>184397</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>32</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>5388291</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>33</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>34</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>17</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>5572688</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3156,7 +3156,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3171,7 +3171,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3186,7 +3186,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
         <v>41</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3238,7 +3238,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>29</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>996186</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>32</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>11083749</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>33</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>34</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>17</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>12079935</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3446,7 +3446,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3461,7 +3461,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3476,7 +3476,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>42</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3528,7 +3528,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>29</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>942107</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>32</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>7330009</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>33</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>34</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="14" t="s">
         <v>17</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>8272116</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3736,7 +3736,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3751,7 +3751,7 @@
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3766,7 +3766,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B107" s="7" t="s">
         <v>43</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3818,7 +3818,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>29</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>24323890</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>32</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>117485495</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>33</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3950,7 +3950,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3965,7 +3965,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3980,7 +3980,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>45</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4032,7 +4032,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>29</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>3483790</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>32</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>92195794</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>33</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>34</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4203,7 +4203,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4218,7 +4218,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4233,7 +4233,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B124" s="7" t="s">
         <v>46</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -4285,7 +4285,7 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>29</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>23402227</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>32</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>400496802</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
         <v>33</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>34</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4456,7 +4456,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -4471,7 +4471,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4486,7 +4486,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B133" s="7" t="s">
         <v>47</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -4538,7 +4538,7 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>29</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>15838256</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>32</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>109551914</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -4631,7 +4631,7 @@
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -4646,7 +4646,7 @@
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -4661,7 +4661,7 @@
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
     </row>
-    <row r="140" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B140" s="7" t="s">
         <v>48</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -4713,7 +4713,7 @@
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
         <v>49</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>-146045</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="10" t="s">
         <v>50</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="8" t="s">
         <v>51</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="10" t="s">
         <v>52</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
         <v>53</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>-2149707</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>54</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>330001</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
         <v>55</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>-50226</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>56</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>328839</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="8" t="s">
         <v>57</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="10" t="s">
         <v>58</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>-289962</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="14" t="s">
         <v>17</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>-1977100</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -5135,7 +5135,7 @@
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5150,7 +5150,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -5165,7 +5165,7 @@
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
     </row>
-    <row r="156" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B156" s="7" t="s">
         <v>59</v>
       </c>
@@ -5182,7 +5182,7 @@
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -5197,7 +5197,7 @@
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="8" t="s">
         <v>60</v>
       </c>
@@ -5216,7 +5216,7 @@
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="10" t="s">
         <v>62</v>
       </c>
@@ -5235,7 +5235,7 @@
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="8" t="s">
         <v>63</v>
       </c>
@@ -5246,7 +5246,7 @@
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B161" s="10" t="s">
         <v>65</v>
       </c>
@@ -5257,7 +5257,7 @@
       <c r="E161" s="11"/>
       <c r="F161" s="11"/>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B162" s="8" t="s">
         <v>67</v>
       </c>
@@ -5268,7 +5268,7 @@
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B163" s="10" t="s">
         <v>69</v>
       </c>
@@ -5279,7 +5279,7 @@
       <c r="E163" s="11"/>
       <c r="F163" s="11"/>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B164" s="8" t="s">
         <v>67</v>
       </c>
@@ -5290,7 +5290,7 @@
       <c r="E164" s="9"/>
       <c r="F164" s="9"/>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B165" s="10" t="s">
         <v>72</v>
       </c>
@@ -5301,7 +5301,7 @@
       <c r="E165" s="11"/>
       <c r="F165" s="11"/>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B166" s="8" t="s">
         <v>73</v>
       </c>
@@ -5312,7 +5312,7 @@
       <c r="E166" s="9"/>
       <c r="F166" s="9"/>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B167" s="10" t="s">
         <v>74</v>
       </c>
@@ -5323,7 +5323,7 @@
       <c r="E167" s="11"/>
       <c r="F167" s="11"/>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B168" s="8" t="s">
         <v>76</v>
       </c>
@@ -5334,7 +5334,7 @@
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B169" s="10" t="s">
         <v>74</v>
       </c>
@@ -5345,7 +5345,7 @@
       <c r="E169" s="11"/>
       <c r="F169" s="11"/>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B170" s="8" t="s">
         <v>77</v>
       </c>
